--- a/ValueSet-who-ddcc-agent-targeted-covid-19.xlsx
+++ b/ValueSet-who-ddcc-agent-targeted-covid-19.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-22T19:58:30+00:00</t>
+    <t>2022-03-22T20:04:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-who-ddcc-agent-targeted-covid-19.xlsx
+++ b/ValueSet-who-ddcc-agent-targeted-covid-19.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-22T20:04:56+00:00</t>
+    <t>2022-03-22T20:08:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-who-ddcc-agent-targeted-covid-19.xlsx
+++ b/ValueSet-who-ddcc-agent-targeted-covid-19.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-22T20:08:10+00:00</t>
+    <t>2022-03-22T21:10:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-who-ddcc-agent-targeted-covid-19.xlsx
+++ b/ValueSet-who-ddcc-agent-targeted-covid-19.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-22T21:10:15+00:00</t>
+    <t>2022-03-23T17:44:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-who-ddcc-agent-targeted-covid-19.xlsx
+++ b/ValueSet-who-ddcc-agent-targeted-covid-19.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-23T17:44:48+00:00</t>
+    <t>2022-03-23T20:45:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-who-ddcc-agent-targeted-covid-19.xlsx
+++ b/ValueSet-who-ddcc-agent-targeted-covid-19.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-23T20:45:19+00:00</t>
+    <t>2022-03-23T20:58:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-who-ddcc-agent-targeted-covid-19.xlsx
+++ b/ValueSet-who-ddcc-agent-targeted-covid-19.xlsx
@@ -7,13 +7,13 @@
   </bookViews>
   <sheets>
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
-    <sheet name="Include from mms" r:id="rId4" sheetId="2"/>
+    <sheet name="Include from DDCC Codes for I" r:id="rId4" sheetId="2"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="59">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.3.1</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-23T20:58:03+00:00</t>
+    <t>2023-10-22T07:22:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -75,7 +75,7 @@
     <t>Jurisdiction</t>
   </si>
   <si>
-    <t>World</t>
+    <t>Global (Whole world)</t>
   </si>
   <si>
     <t>Description</t>
@@ -169,6 +169,18 @@
   </si>
   <si>
     <t>SARS-CoV-2 Lambda</t>
+  </si>
+  <si>
+    <t>XN39J</t>
+  </si>
+  <si>
+    <t>SARS-CoV-2 Mu</t>
+  </si>
+  <si>
+    <t>XN161</t>
+  </si>
+  <si>
+    <t>SARS-CoV-2 Omicron</t>
   </si>
   <si>
     <t/>
@@ -299,10 +311,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
@@ -442,7 +454,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -561,15 +573,31 @@
         <v>52</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="B16" t="s" s="2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="B17" t="s" s="2">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
